--- a/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
+++ b/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="15132" windowHeight="8136" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="15132" windowHeight="8136" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap Ibadah" sheetId="1" r:id="rId1"/>
     <sheet name="Rekap Keterlambatan" sheetId="3" r:id="rId2"/>
     <sheet name="KPI Personal" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'KPI Personal'!$A$1:$S$78</definedName>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="81">
   <si>
     <t>REKAP IBADAH HARIAN</t>
   </si>
@@ -431,6 +432,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Tingkat Pengamalan Ibadah</t>
+  </si>
+  <si>
+    <t>Tingkat Kedisiplinan Karyawan</t>
+  </si>
+  <si>
+    <t>GAJI BONUS TOTAL  ( 15% * TOTAL)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +582,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +695,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -870,11 +886,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,12 +900,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -913,6 +966,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,20 +978,59 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1243,7 +1338,7 @@
   <dimension ref="A1:N904"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A4" sqref="A4:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,13 +1368,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="96" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1306,7 +1401,7 @@
       <c r="K4" s="66">
         <v>8</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="97" t="s">
         <v>61</v>
       </c>
       <c r="M4" s="53" t="s">
@@ -1314,9 +1409,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1436,7 @@
       <c r="K5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="92"/>
+      <c r="L5" s="97"/>
       <c r="M5" s="53">
         <v>100</v>
       </c>
@@ -1356,41 +1451,41 @@
       <c r="C6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="125">
+        <v>31</v>
+      </c>
+      <c r="E6" s="126">
+        <f>D6/$E$4</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="127">
+        <v>31</v>
+      </c>
+      <c r="G6" s="126">
+        <f t="shared" ref="G6:G10" si="0">F6/$G$4</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="127">
         <v>0</v>
       </c>
-      <c r="E6" s="81">
-        <f>D6/$E$4</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="82">
-        <v>0</v>
-      </c>
-      <c r="G6" s="81">
-        <f t="shared" ref="G6:G10" si="0">F6/$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="82">
-        <v>0</v>
-      </c>
-      <c r="I6" s="81">
+      <c r="I6" s="126">
         <f>H6/$I$4</f>
         <v>0</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="127">
         <v>0</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="126">
         <f>J6/$K$4</f>
         <v>0</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="128">
         <f>(E6+G6+I6+K6)/4</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="84">
-        <f t="shared" ref="M6:M10" si="1">L6*$M$5</f>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="129">
+        <f t="shared" ref="M6:M9" si="1">L6*$M$5</f>
+        <v>50</v>
       </c>
       <c r="N6" s="50"/>
     </row>
@@ -1404,40 +1499,40 @@
       <c r="C7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="125">
         <f>31-5</f>
         <v>26</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="126">
         <f t="shared" ref="E7:E10" si="2">D7/$E$4</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="127">
         <v>31</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="126">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="127">
         <v>31</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="126">
         <f>H7/$I$4</f>
         <v>1</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="127">
         <v>6</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="126">
         <f>J7/$K$4</f>
         <v>0.75</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="128">
         <f>(E7+G7+I7+K7)/4</f>
         <v>0.89717741935483875</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="129">
         <f t="shared" si="1"/>
         <v>89.717741935483872</v>
       </c>
@@ -1453,39 +1548,39 @@
       <c r="C8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="125">
         <v>2</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="126">
         <f t="shared" si="2"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="127">
         <v>28</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="126">
         <f t="shared" si="0"/>
         <v>0.90322580645161288</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="127">
         <v>28</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="126">
         <f>H8/$I$4</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="127">
         <v>1</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="126">
         <f>J8/$K$4</f>
         <v>0.125</v>
       </c>
-      <c r="L8" s="83">
+      <c r="L8" s="128">
         <f>(E8+G8+I8+K8)/4</f>
         <v>0.498991935483871</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="129">
         <f t="shared" si="1"/>
         <v>49.899193548387103</v>
       </c>
@@ -1494,45 +1589,45 @@
       <c r="A9" s="77">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="125">
         <v>31</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="127">
         <v>31</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="126">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="127">
         <v>29</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="126">
         <f>H9/$I$4</f>
         <v>0.93548387096774188</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="127">
         <v>4</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="126">
         <f>J9/$K$4</f>
         <v>0.5</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L9" s="128">
         <f>(E9+G9+I9+K9)/4</f>
         <v>0.8588709677419355</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="129">
         <f t="shared" si="1"/>
         <v>85.887096774193552</v>
       </c>
@@ -1548,34 +1643,39 @@
       <c r="C10" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="125">
         <v>0</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="81">
+      <c r="F10" s="127">
+        <v>0</v>
+      </c>
+      <c r="G10" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="81">
+      <c r="H10" s="127">
+        <v>0</v>
+      </c>
+      <c r="I10" s="126">
         <f>H10/$I$4</f>
         <v>0</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81">
+      <c r="J10" s="127">
+        <v>0</v>
+      </c>
+      <c r="K10" s="126">
         <f>J10/$K$4</f>
         <v>0</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L10" s="128">
         <f>(E10+G10+I10+K10)/4</f>
         <v>0</v>
       </c>
-      <c r="M10" s="84">
-        <f t="shared" si="1"/>
+      <c r="M10" s="128">
         <v>0</v>
       </c>
       <c r="N10" s="50"/>
@@ -1610,7 +1710,7 @@
   <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C17"/>
+      <selection activeCell="B3" sqref="B3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2141,121 +2241,121 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="104" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86">
+      <c r="B5" s="81">
         <v>1</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="100">
         <v>0</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="89">
+      <c r="F5" s="101"/>
+      <c r="G5" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86">
+      <c r="B6" s="81">
         <v>2</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="100">
+        <v>10</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="84">
         <v>0</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="89">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="86">
+      <c r="B7" s="81">
         <v>3</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="100">
+        <v>9</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="84">
         <v>0</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="89">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86">
+      <c r="B8" s="81">
         <v>4</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="102">
-        <v>0</v>
-      </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="89">
-        <v>1</v>
+      <c r="E8" s="100">
+        <v>4</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="84">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86">
+      <c r="B9" s="81">
         <v>5</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="102">
-        <v>0</v>
-      </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="89">
-        <v>1</v>
+      <c r="E9" s="100">
+        <v>3</v>
+      </c>
+      <c r="F9" s="101"/>
+      <c r="G9" s="84">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -2272,7 +2372,7 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="85" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="73" t="s">
@@ -2494,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:I60"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,23 +3604,23 @@
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -3550,16 +3650,16 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -3568,7 +3668,7 @@
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="103" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="28" t="s">
@@ -3583,18 +3683,18 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="31">
         <f>SUM(D9:D13)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96" t="s">
+      <c r="E7" s="104"/>
+      <c r="F7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="95"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="61" t="s">
         <v>67</v>
       </c>
@@ -3639,7 +3739,7 @@
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3692,7 +3792,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="36" t="s">
         <v>47</v>
       </c>
@@ -3796,7 +3896,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -3849,7 +3949,7 @@
       <c r="T12" s="60"/>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="36" t="s">
         <v>51</v>
       </c>
@@ -3900,15 +4000,15 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
       <c r="I14" s="44">
         <f>SUM(I9:I13)</f>
         <v>1.189934065934066</v>
@@ -3941,16 +4041,16 @@
       <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -3959,7 +4059,7 @@
       <c r="G17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="103" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="28" t="s">
@@ -3968,19 +4068,19 @@
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="31">
         <f>SUM(D20:D24)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96" t="str">
+      <c r="E18" s="104"/>
+      <c r="F18" s="105" t="str">
         <f>+F7</f>
         <v>MARET</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="104"/>
       <c r="I18" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -3999,7 +4099,7 @@
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -4029,7 +4129,7 @@
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="36" t="s">
         <v>47</v>
       </c>
@@ -4088,7 +4188,7 @@
       <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -4116,7 +4216,7 @@
       <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
@@ -4144,15 +4244,15 @@
       <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
       <c r="I25" s="44">
         <f>SUM(I20:I24)</f>
         <v>1.3034133286068772</v>
@@ -4183,16 +4283,16 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -4201,7 +4301,7 @@
       <c r="G29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="103" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="28" t="s">
@@ -4209,19 +4309,19 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="31">
         <f>SUM(D32:D36)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96" t="str">
+      <c r="E30" s="104"/>
+      <c r="F30" s="105" t="str">
         <f>+F18</f>
         <v>MARET</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="95"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4240,7 +4340,7 @@
       <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -4270,7 +4370,7 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="97"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="36" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4426,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -4353,7 +4453,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="36" t="s">
         <v>51</v>
       </c>
@@ -4380,15 +4480,15 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="44">
         <f>SUM(I32:I36)</f>
         <v>1.1896460475008863</v>
@@ -4419,16 +4519,16 @@
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="26" t="s">
@@ -4437,7 +4537,7 @@
       <c r="G40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="103" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="28" t="s">
@@ -4445,19 +4545,19 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
       <c r="D41" s="31">
         <f>SUM(D43:D47)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96" t="str">
+      <c r="E41" s="104"/>
+      <c r="F41" s="105" t="str">
         <f>+F30</f>
         <v>MARET</v>
       </c>
-      <c r="G41" s="96"/>
-      <c r="H41" s="95"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="104"/>
       <c r="I41" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4474,7 +4574,7 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -4503,7 +4603,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="97"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="36" t="s">
         <v>47</v>
       </c>
@@ -4559,7 +4659,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -4586,7 +4686,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="98"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="36" t="s">
         <v>51</v>
       </c>
@@ -4613,15 +4713,15 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
       <c r="I48" s="44">
         <f>SUM(I43:I47)</f>
         <v>1.2924686281460476</v>
@@ -4652,16 +4752,16 @@
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="94" t="s">
+      <c r="E52" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="26" t="s">
@@ -4670,7 +4770,7 @@
       <c r="G52" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="94" t="s">
+      <c r="H52" s="103" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="28" t="s">
@@ -4678,19 +4778,19 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="31">
         <f>SUM(D55:D59)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="95"/>
-      <c r="F53" s="96" t="str">
+      <c r="E53" s="104"/>
+      <c r="F53" s="105" t="str">
         <f>+F41</f>
         <v>MARET</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="95"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="104"/>
       <c r="I53" s="57" t="str">
         <f>+I41</f>
         <v>KPI APRIL</v>
@@ -4707,7 +4807,7 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -4736,7 +4836,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
+      <c r="B56" s="106"/>
       <c r="C56" s="36" t="s">
         <v>47</v>
       </c>
@@ -4792,7 +4892,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
@@ -4819,7 +4919,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="98"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="36" t="s">
         <v>51</v>
       </c>
@@ -4845,15 +4945,15 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="106" t="s">
+      <c r="B60" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
       <c r="I60" s="44">
         <f>SUM(I55:I59)</f>
         <v>1.0899340659340659</v>
@@ -4872,15 +4972,15 @@
       <c r="B65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="49" t="s">
@@ -4889,14 +4989,14 @@
       <c r="C69" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="99" t="s">
+      <c r="E69" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="99"/>
-      <c r="H69" s="99" t="s">
+      <c r="F69" s="109"/>
+      <c r="H69" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="99"/>
+      <c r="I69" s="109"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
@@ -4905,14 +5005,14 @@
       <c r="C70" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="100" t="s">
+      <c r="E70" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="100"/>
-      <c r="H70" s="100" t="s">
+      <c r="F70" s="110"/>
+      <c r="H70" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="100"/>
+      <c r="I70" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -4967,4 +5067,824 @@
   <pageSetup paperSize="5" scale="75" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="93">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="90">
+        <f>SUM(C6:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="121">
+        <v>0</v>
+      </c>
+      <c r="F6" s="123">
+        <v>1</v>
+      </c>
+      <c r="G6" s="112">
+        <v>1</v>
+      </c>
+      <c r="H6" s="112">
+        <f>G6*C6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="116"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="116"/>
+      <c r="B8" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="37">
+        <f>F8/E8</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H8" s="37">
+        <f>G8*C8</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="88">
+        <f>SUM(H6:H8)</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="91">
+        <f>0.15*H9</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="93">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="90">
+        <f>SUM(C15:C18)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="121">
+        <v>0</v>
+      </c>
+      <c r="F15" s="123">
+        <v>0</v>
+      </c>
+      <c r="G15" s="112">
+        <v>0</v>
+      </c>
+      <c r="H15" s="112">
+        <f>G15*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="116"/>
+      <c r="B17" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0.8972</v>
+      </c>
+      <c r="G17" s="37">
+        <f>F17/E17</f>
+        <v>0.99688888888888882</v>
+      </c>
+      <c r="H17" s="37">
+        <f>G17*C17</f>
+        <v>0.59813333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="88">
+        <f>SUM(H15:H17)</f>
+        <v>0.59813333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="91">
+        <f>0.15*H18</f>
+        <v>8.9719999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="94">
+        <v>3</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="90">
+        <f>SUM(C24:C27)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="121">
+        <v>0</v>
+      </c>
+      <c r="F24" s="123">
+        <v>0</v>
+      </c>
+      <c r="G24" s="112">
+        <v>0</v>
+      </c>
+      <c r="H24" s="112">
+        <f>G24*C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="116"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="116"/>
+      <c r="B26" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="37">
+        <f>F26/E26</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H26" s="37">
+        <f>G26*C26</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="88">
+        <f>SUM(H24:H26)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="91">
+        <f>0.15*H27</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="94">
+        <v>4</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="90">
+        <f>SUM(C33:C36)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="121">
+        <v>0</v>
+      </c>
+      <c r="F33" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="112">
+        <f>G33*C33</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="116"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="116"/>
+      <c r="B35" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0.86</v>
+      </c>
+      <c r="G35" s="37">
+        <f>F35/E35</f>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="H35" s="37">
+        <f>G35*C35</f>
+        <v>0.57333333333333325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="88">
+        <f>SUM(H33:H35)</f>
+        <v>0.77333333333333321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="91">
+        <f>0.15*H36</f>
+        <v>0.11599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="94">
+        <v>5</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="90">
+        <f>SUM(C42:C45)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="121">
+        <v>0</v>
+      </c>
+      <c r="F42" s="123">
+        <v>0.75</v>
+      </c>
+      <c r="G42" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="112">
+        <f>G42*C42</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="116"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="116"/>
+      <c r="B44" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="64">
+        <v>0</v>
+      </c>
+      <c r="G44" s="37">
+        <f>F44/E44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="37">
+        <f>G44*C44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="88">
+        <f>SUM(H42:H44)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="91">
+        <f>0.15*H45</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
+++ b/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="15132" windowHeight="8136" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="15132" windowHeight="8136" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap Ibadah" sheetId="1" r:id="rId1"/>
@@ -930,6 +930,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,21 +1030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:N904"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,13 +1368,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="101" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1401,7 +1401,7 @@
       <c r="K4" s="66">
         <v>8</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="102" t="s">
         <v>61</v>
       </c>
       <c r="M4" s="53" t="s">
@@ -1409,9 +1409,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="K5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="97"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="53">
         <v>100</v>
       </c>
@@ -1451,39 +1451,39 @@
       <c r="C6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="96">
         <v>31</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="97">
         <f>D6/$E$4</f>
         <v>1</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="98">
         <v>31</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="97">
         <f t="shared" ref="G6:G10" si="0">F6/$G$4</f>
         <v>1</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="98">
         <v>0</v>
       </c>
-      <c r="I6" s="126">
+      <c r="I6" s="97">
         <f>H6/$I$4</f>
         <v>0</v>
       </c>
-      <c r="J6" s="127">
+      <c r="J6" s="98">
         <v>0</v>
       </c>
-      <c r="K6" s="126">
+      <c r="K6" s="97">
         <f>J6/$K$4</f>
         <v>0</v>
       </c>
-      <c r="L6" s="128">
+      <c r="L6" s="99">
         <f>(E6+G6+I6+K6)/4</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="100">
         <f t="shared" ref="M6:M9" si="1">L6*$M$5</f>
         <v>50</v>
       </c>
@@ -1499,40 +1499,40 @@
       <c r="C7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="96">
         <f>31-5</f>
         <v>26</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="97">
         <f t="shared" ref="E7:E10" si="2">D7/$E$4</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="98">
         <v>31</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="98">
         <v>31</v>
       </c>
-      <c r="I7" s="126">
+      <c r="I7" s="97">
         <f>H7/$I$4</f>
         <v>1</v>
       </c>
-      <c r="J7" s="127">
+      <c r="J7" s="98">
         <v>6</v>
       </c>
-      <c r="K7" s="126">
+      <c r="K7" s="97">
         <f>J7/$K$4</f>
         <v>0.75</v>
       </c>
-      <c r="L7" s="128">
+      <c r="L7" s="99">
         <f>(E7+G7+I7+K7)/4</f>
         <v>0.89717741935483875</v>
       </c>
-      <c r="M7" s="129">
+      <c r="M7" s="100">
         <f t="shared" si="1"/>
         <v>89.717741935483872</v>
       </c>
@@ -1548,39 +1548,39 @@
       <c r="C8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="96">
         <v>2</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="97">
         <f t="shared" si="2"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="98">
         <v>28</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="97">
         <f t="shared" si="0"/>
         <v>0.90322580645161288</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="98">
         <v>28</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I8" s="97">
         <f>H8/$I$4</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="98">
         <v>1</v>
       </c>
-      <c r="K8" s="126">
+      <c r="K8" s="97">
         <f>J8/$K$4</f>
         <v>0.125</v>
       </c>
-      <c r="L8" s="128">
+      <c r="L8" s="99">
         <f>(E8+G8+I8+K8)/4</f>
         <v>0.498991935483871</v>
       </c>
-      <c r="M8" s="129">
+      <c r="M8" s="100">
         <f t="shared" si="1"/>
         <v>49.899193548387103</v>
       </c>
@@ -1595,39 +1595,39 @@
       <c r="C9" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="96">
         <v>31</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="97">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="98">
         <v>31</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="98">
         <v>29</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="97">
         <f>H9/$I$4</f>
         <v>0.93548387096774188</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="98">
         <v>4</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="97">
         <f>J9/$K$4</f>
         <v>0.5</v>
       </c>
-      <c r="L9" s="128">
+      <c r="L9" s="99">
         <f>(E9+G9+I9+K9)/4</f>
         <v>0.8588709677419355</v>
       </c>
-      <c r="M9" s="129">
+      <c r="M9" s="100">
         <f t="shared" si="1"/>
         <v>85.887096774193552</v>
       </c>
@@ -1643,39 +1643,39 @@
       <c r="C10" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10" s="96">
         <v>0</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="127">
+      <c r="F10" s="98">
         <v>0</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="98">
         <v>0</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="97">
         <f>H10/$I$4</f>
         <v>0</v>
       </c>
-      <c r="J10" s="127">
+      <c r="J10" s="98">
         <v>0</v>
       </c>
-      <c r="K10" s="126">
+      <c r="K10" s="97">
         <f>J10/$K$4</f>
         <v>0</v>
       </c>
-      <c r="L10" s="128">
+      <c r="L10" s="99">
         <f>(E10+G10+I10+K10)/4</f>
         <v>0</v>
       </c>
-      <c r="M10" s="128">
+      <c r="M10" s="99">
         <v>0</v>
       </c>
       <c r="N10" s="50"/>
@@ -1710,7 +1710,7 @@
   <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2241,29 +2241,29 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="98" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="55" t="s">
         <v>9</v>
       </c>
@@ -2278,10 +2278,10 @@
       <c r="D5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="105">
         <v>0</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="84">
         <v>1</v>
       </c>
@@ -2296,10 +2296,10 @@
       <c r="D6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="105">
         <v>10</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="84">
         <v>0</v>
       </c>
@@ -2314,10 +2314,10 @@
       <c r="D7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="105">
         <v>9</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="84">
         <v>0</v>
       </c>
@@ -2332,10 +2332,10 @@
       <c r="D8" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="105">
         <v>4</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="84">
         <v>0.5</v>
       </c>
@@ -2350,10 +2350,10 @@
       <c r="D9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="105">
         <v>3</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="84">
         <v>0.75</v>
       </c>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3604,23 +3604,23 @@
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -3650,16 +3650,16 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -3668,7 +3668,7 @@
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="108" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="28" t="s">
@@ -3683,18 +3683,18 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="31">
         <f>SUM(D9:D13)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="104"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="109"/>
       <c r="I7" s="61" t="s">
         <v>67</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3758,12 +3758,12 @@
         <v>1134</v>
       </c>
       <c r="H9" s="37">
-        <f>+G9/F9</f>
-        <v>1.6153846153846154</v>
+        <f>F9/G9</f>
+        <v>0.61904761904761907</v>
       </c>
       <c r="I9" s="37">
         <f>H9*D9</f>
-        <v>0.32307692307692309</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="J9" s="39">
         <v>700</v>
@@ -3788,11 +3788,11 @@
       </c>
       <c r="Q9" s="16">
         <f>SUM(G9:P9)</f>
-        <v>7735.9384615384615</v>
+        <v>7734.7428571428572</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="36" t="s">
         <v>47</v>
       </c>
@@ -3809,11 +3809,11 @@
         <v>144</v>
       </c>
       <c r="H10" s="37">
-        <v>1.62</v>
+        <v>0.75</v>
       </c>
       <c r="I10" s="37">
         <f>H10*D10</f>
-        <v>0.32400000000000007</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J10" s="38">
         <v>70</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="Q10" s="16">
         <f>SUM(G10:P10)</f>
-        <v>719.94399999999996</v>
+        <v>718.9</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -3949,7 +3949,7 @@
       <c r="T12" s="60"/>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="107"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="36" t="s">
         <v>51</v>
       </c>
@@ -4000,22 +4000,22 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
       <c r="I14" s="44">
         <f>SUM(I9:I13)</f>
-        <v>1.189934065934066</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="R14" s="45">
         <f>I14*15%</f>
-        <v>0.17849010989010991</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -4041,16 +4041,16 @@
       <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -4059,7 +4059,7 @@
       <c r="G17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="108" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="28" t="s">
@@ -4068,19 +4068,19 @@
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="31">
         <f>SUM(D20:D24)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105" t="str">
+      <c r="E18" s="109"/>
+      <c r="F18" s="110" t="str">
         <f>+F7</f>
         <v>MARET</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="104"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="109"/>
       <c r="I18" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4099,7 +4099,7 @@
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -4129,7 +4129,7 @@
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="36" t="s">
         <v>47</v>
       </c>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="H21" s="37">
         <f>+H10</f>
-        <v>1.62</v>
+        <v>0.75</v>
       </c>
       <c r="I21" s="37">
         <f>H21*D21</f>
-        <v>0.32400000000000007</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K21" s="47"/>
       <c r="R21" s="46"/>
@@ -4188,7 +4188,7 @@
       <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -4216,7 +4216,7 @@
       <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
@@ -4244,22 +4244,22 @@
       <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
       <c r="I25" s="44">
         <f>SUM(I20:I24)</f>
-        <v>1.3034133286068772</v>
+        <v>1.129413328606877</v>
       </c>
       <c r="R25" s="45">
         <f>+I25*15%</f>
-        <v>0.19551199929103158</v>
+        <v>0.16941199929103154</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -4283,16 +4283,16 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -4301,7 +4301,7 @@
       <c r="G29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="108" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="28" t="s">
@@ -4309,19 +4309,19 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="31">
         <f>SUM(D32:D36)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105" t="str">
+      <c r="E30" s="109"/>
+      <c r="F30" s="110" t="str">
         <f>+F18</f>
         <v>MARET</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="104"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4340,7 +4340,7 @@
       <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -4370,7 +4370,7 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="106"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="36" t="s">
         <v>47</v>
       </c>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="H33" s="37">
         <f>+H21</f>
-        <v>1.62</v>
+        <v>0.75</v>
       </c>
       <c r="I33" s="37">
         <f>H33*D33</f>
-        <v>0.32400000000000007</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -4453,7 +4453,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="107"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="36" t="s">
         <v>51</v>
       </c>
@@ -4480,22 +4480,22 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
       <c r="I37" s="44">
         <f>SUM(I32:I36)</f>
-        <v>1.1896460475008863</v>
+        <v>1.0156460475008862</v>
       </c>
       <c r="R37" s="45">
         <f>+I37*15%</f>
-        <v>0.17844690712513295</v>
+        <v>0.15234690712513291</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -4519,16 +4519,16 @@
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="103" t="s">
+      <c r="C40" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="26" t="s">
@@ -4537,7 +4537,7 @@
       <c r="G40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="103" t="s">
+      <c r="H40" s="108" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="28" t="s">
@@ -4545,19 +4545,19 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="31">
         <f>SUM(D43:D47)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105" t="str">
+      <c r="E41" s="109"/>
+      <c r="F41" s="110" t="str">
         <f>+F30</f>
         <v>MARET</v>
       </c>
-      <c r="G41" s="105"/>
-      <c r="H41" s="104"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="109"/>
       <c r="I41" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4574,7 +4574,7 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="36" t="s">
         <v>47</v>
       </c>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="H44" s="37">
         <f>+H33</f>
-        <v>1.62</v>
+        <v>0.75</v>
       </c>
       <c r="I44" s="37">
         <f>H44*D44</f>
-        <v>0.32400000000000007</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="107"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="36" t="s">
         <v>51</v>
       </c>
@@ -4713,22 +4713,22 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
       <c r="I48" s="44">
         <f>SUM(I43:I47)</f>
-        <v>1.2924686281460476</v>
+        <v>1.1184686281460476</v>
       </c>
       <c r="R48" s="45">
         <f>+I48*15%</f>
-        <v>0.19387029422190713</v>
+        <v>0.16777029422190715</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -4752,16 +4752,16 @@
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="103" t="s">
+      <c r="C52" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="26" t="s">
@@ -4770,7 +4770,7 @@
       <c r="G52" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="103" t="s">
+      <c r="H52" s="108" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="28" t="s">
@@ -4778,19 +4778,19 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="31">
         <f>SUM(D55:D59)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="105" t="str">
+      <c r="E53" s="109"/>
+      <c r="F53" s="110" t="str">
         <f>+F41</f>
         <v>MARET</v>
       </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="104"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="109"/>
       <c r="I53" s="57" t="str">
         <f>+I41</f>
         <v>KPI APRIL</v>
@@ -4807,7 +4807,7 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="106"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="36" t="s">
         <v>47</v>
       </c>
@@ -4856,11 +4856,11 @@
       </c>
       <c r="H56" s="37">
         <f>+H44</f>
-        <v>1.62</v>
+        <v>0.75</v>
       </c>
       <c r="I56" s="37">
         <f>H56*D56</f>
-        <v>0.32400000000000007</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -4892,7 +4892,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="36" t="s">
         <v>51</v>
       </c>
@@ -4945,22 +4945,22 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
       <c r="I60" s="44">
         <f>SUM(I55:I59)</f>
-        <v>1.0899340659340659</v>
+        <v>0.91593406593406601</v>
       </c>
       <c r="R60" s="45">
         <f>+I60*15%</f>
-        <v>0.1634901098901099</v>
+        <v>0.13739010989010988</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -4972,15 +4972,15 @@
       <c r="B65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="49" t="s">
@@ -4989,14 +4989,14 @@
       <c r="C69" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="109" t="s">
+      <c r="E69" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="109"/>
-      <c r="H69" s="109" t="s">
+      <c r="F69" s="114"/>
+      <c r="H69" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="109"/>
+      <c r="I69" s="114"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
@@ -5005,14 +5005,14 @@
       <c r="C70" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="110" t="s">
+      <c r="E70" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="110"/>
-      <c r="H70" s="110" t="s">
+      <c r="F70" s="115"/>
+      <c r="H70" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="110"/>
+      <c r="I70" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -5073,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5095,16 +5095,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="92" t="s">
@@ -5113,7 +5113,7 @@
       <c r="F4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="86" t="s">
@@ -5121,61 +5121,61 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="90">
         <f>SUM(C6:C9)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="117">
         <v>0.4</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="126">
         <v>0</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="128">
         <v>1</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="117">
         <v>1</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="117">
         <f>G6*C6</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="116"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="87" t="s">
         <v>78</v>
       </c>
@@ -5201,30 +5201,30 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="88">
         <f>SUM(H6:H8)</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="91">
         <f>0.15*H9</f>
         <v>0.11</v>
@@ -5239,16 +5239,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="110" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="92" t="s">
@@ -5257,7 +5257,7 @@
       <c r="F13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="86" t="s">
@@ -5265,61 +5265,61 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="90">
         <f>SUM(C15:C18)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="117">
         <v>0.4</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="121">
+      <c r="E15" s="126">
         <v>0</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="128">
         <v>0</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="117">
         <v>0</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="117">
         <f>G15*C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="87" t="s">
         <v>78</v>
       </c>
@@ -5345,30 +5345,30 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
       <c r="H18" s="88">
         <f>SUM(H15:H17)</f>
         <v>0.59813333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="91">
         <f>0.15*H18</f>
         <v>8.9719999999999994E-2</v>
@@ -5383,16 +5383,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="110" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="92" t="s">
@@ -5401,7 +5401,7 @@
       <c r="F22" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="105" t="s">
+      <c r="G22" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="86" t="s">
@@ -5409,61 +5409,61 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="90">
         <f>SUM(C24:C27)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="112">
+      <c r="C24" s="117">
         <v>0.4</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="126">
         <v>0</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="128">
         <v>0</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="117">
         <v>0</v>
       </c>
-      <c r="H24" s="112">
+      <c r="H24" s="117">
         <f>G24*C24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="87" t="s">
         <v>78</v>
       </c>
@@ -5489,30 +5489,30 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
       <c r="H27" s="88">
         <f>SUM(H24:H26)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="91">
         <f>0.15*H27</f>
         <v>4.9999999999999996E-2</v>
@@ -5528,16 +5528,16 @@
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="110" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="92" t="s">
@@ -5546,7 +5546,7 @@
       <c r="F31" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="105" t="s">
+      <c r="G31" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="86" t="s">
@@ -5554,61 +5554,61 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="90">
         <f>SUM(C33:C36)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105" t="s">
+      <c r="D32" s="110"/>
+      <c r="E32" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
       <c r="H32" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="112">
+      <c r="C33" s="117">
         <v>0.4</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="121">
+      <c r="E33" s="126">
         <v>0</v>
       </c>
-      <c r="F33" s="123">
+      <c r="F33" s="128">
         <v>0.5</v>
       </c>
-      <c r="G33" s="112">
+      <c r="G33" s="117">
         <v>0.5</v>
       </c>
-      <c r="H33" s="112">
+      <c r="H33" s="117">
         <f>G33*C33</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="116"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="87" t="s">
         <v>78</v>
       </c>
@@ -5634,30 +5634,30 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
       <c r="H36" s="88">
         <f>SUM(H33:H35)</f>
         <v>0.77333333333333321</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="91">
         <f>0.15*H36</f>
         <v>0.11599999999999998</v>
@@ -5672,16 +5672,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="110" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="105" t="s">
+      <c r="D40" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="92" t="s">
@@ -5690,7 +5690,7 @@
       <c r="F40" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="105" t="s">
+      <c r="G40" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H40" s="86" t="s">
@@ -5698,61 +5698,61 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="90">
         <f>SUM(C42:C45)</f>
         <v>1</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105" t="s">
+      <c r="D41" s="110"/>
+      <c r="E41" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="112">
+      <c r="C42" s="117">
         <v>0.4</v>
       </c>
-      <c r="D42" s="119" t="s">
+      <c r="D42" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="121">
+      <c r="E42" s="126">
         <v>0</v>
       </c>
-      <c r="F42" s="123">
+      <c r="F42" s="128">
         <v>0.75</v>
       </c>
-      <c r="G42" s="112">
+      <c r="G42" s="117">
         <v>0.75</v>
       </c>
-      <c r="H42" s="112">
+      <c r="H42" s="117">
         <f>G42*C42</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="116"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="87" t="s">
         <v>78</v>
       </c>
@@ -5778,30 +5778,30 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="114" t="s">
+      <c r="A45" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
       <c r="H45" s="88">
         <f>SUM(H42:H44)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
       <c r="H46" s="91">
         <f>0.15*H45</f>
         <v>4.5000000000000005E-2</v>

--- a/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
+++ b/Data DTTI/Sampel Perimbangan Bonus Pegawai & Gaji Pegawai.xlsx
@@ -951,47 +951,53 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,12 +1030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,7 +1710,7 @@
   <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2260,10 +2260,10 @@
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
       <c r="D4" s="101"/>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="104"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="55" t="s">
         <v>9</v>
       </c>
@@ -2278,10 +2278,10 @@
       <c r="D5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="103">
         <v>0</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="84">
         <v>1</v>
       </c>
@@ -2296,10 +2296,10 @@
       <c r="D6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="103">
         <v>10</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="84">
         <v>0</v>
       </c>
@@ -2314,10 +2314,10 @@
       <c r="D7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="103">
         <v>9</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="84">
         <v>0</v>
       </c>
@@ -2332,10 +2332,10 @@
       <c r="D8" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="103">
         <v>4</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="84">
         <v>0.5</v>
       </c>
@@ -2350,10 +2350,10 @@
       <c r="D9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="103">
         <v>3</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="84">
         <v>0.75</v>
       </c>
@@ -2574,16 +2574,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3604,23 +3604,23 @@
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -3650,16 +3650,16 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -3668,7 +3668,7 @@
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="28" t="s">
@@ -3683,18 +3683,18 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="31">
         <f>SUM(D9:D13)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="109"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="61" t="s">
         <v>67</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3792,7 +3792,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="36" t="s">
         <v>47</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="108" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -3949,7 +3949,7 @@
       <c r="T12" s="60"/>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="112"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="36" t="s">
         <v>51</v>
       </c>
@@ -4000,15 +4000,15 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="44">
         <f>SUM(I9:I13)</f>
         <v>0.81666666666666665</v>
@@ -4041,16 +4041,16 @@
       <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -4059,7 +4059,7 @@
       <c r="G17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="28" t="s">
@@ -4068,19 +4068,19 @@
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="31">
         <f>SUM(D20:D24)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110" t="str">
+      <c r="E18" s="114"/>
+      <c r="F18" s="115" t="str">
         <f>+F7</f>
         <v>MARET</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="109"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="114"/>
       <c r="I18" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4099,7 +4099,7 @@
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -4129,7 +4129,7 @@
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="111"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="36" t="s">
         <v>47</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="108" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -4216,7 +4216,7 @@
       <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="112"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
@@ -4244,15 +4244,15 @@
       <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="44">
         <f>SUM(I20:I24)</f>
         <v>1.129413328606877</v>
@@ -4283,16 +4283,16 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -4301,7 +4301,7 @@
       <c r="G29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="28" t="s">
@@ -4309,19 +4309,19 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="31">
         <f>SUM(D32:D36)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110" t="str">
+      <c r="E30" s="114"/>
+      <c r="F30" s="115" t="str">
         <f>+F18</f>
         <v>MARET</v>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="109"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="114"/>
       <c r="I30" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4340,7 +4340,7 @@
       <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -4370,7 +4370,7 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="111"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="36" t="s">
         <v>47</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="108" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -4453,7 +4453,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="112"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="36" t="s">
         <v>51</v>
       </c>
@@ -4480,15 +4480,15 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="44">
         <f>SUM(I32:I36)</f>
         <v>1.0156460475008862</v>
@@ -4519,16 +4519,16 @@
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="26" t="s">
@@ -4537,7 +4537,7 @@
       <c r="G40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="28" t="s">
@@ -4545,19 +4545,19 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="31">
         <f>SUM(D43:D47)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110" t="str">
+      <c r="E41" s="114"/>
+      <c r="F41" s="115" t="str">
         <f>+F30</f>
         <v>MARET</v>
       </c>
-      <c r="G41" s="110"/>
-      <c r="H41" s="109"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="114"/>
       <c r="I41" s="57" t="str">
         <f>+I7</f>
         <v>KPI APRIL</v>
@@ -4574,7 +4574,7 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="111"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="36" t="s">
         <v>47</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="108" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="112"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="36" t="s">
         <v>51</v>
       </c>
@@ -4713,15 +4713,15 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
       <c r="I48" s="44">
         <f>SUM(I43:I47)</f>
         <v>1.1184686281460476</v>
@@ -4752,16 +4752,16 @@
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="108" t="s">
+      <c r="E52" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="26" t="s">
@@ -4770,7 +4770,7 @@
       <c r="G52" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="108" t="s">
+      <c r="H52" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="28" t="s">
@@ -4778,19 +4778,19 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="31">
         <f>SUM(D55:D59)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="110" t="str">
+      <c r="E53" s="114"/>
+      <c r="F53" s="115" t="str">
         <f>+F41</f>
         <v>MARET</v>
       </c>
-      <c r="G53" s="110"/>
-      <c r="H53" s="109"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="114"/>
       <c r="I53" s="57" t="str">
         <f>+I41</f>
         <v>KPI APRIL</v>
@@ -4807,7 +4807,7 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="111"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="36" t="s">
         <v>47</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="108" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="112"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="36" t="s">
         <v>51</v>
       </c>
@@ -4945,15 +4945,15 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
       <c r="I60" s="44">
         <f>SUM(I55:I59)</f>
         <v>0.91593406593406601</v>
@@ -4972,15 +4972,15 @@
       <c r="B65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="49" t="s">
@@ -4989,14 +4989,14 @@
       <c r="C69" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="114" t="s">
+      <c r="E69" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="114"/>
-      <c r="H69" s="114" t="s">
+      <c r="F69" s="109"/>
+      <c r="H69" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="114"/>
+      <c r="I69" s="109"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
@@ -5005,25 +5005,39 @@
       <c r="C70" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="115"/>
-      <c r="H70" s="115" t="s">
+      <c r="F70" s="110"/>
+      <c r="H70" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="115"/>
+      <c r="I70" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="B32:B33"/>
@@ -5040,28 +5054,14 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="B60:H60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -5095,16 +5095,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="92" t="s">
@@ -5113,7 +5113,7 @@
       <c r="F4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="86" t="s">
@@ -5121,61 +5121,61 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="90">
         <f>SUM(C6:C9)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="119">
         <v>0.4</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="128">
         <v>0</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="117">
         <v>1</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="119">
         <v>1</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="119">
         <f>G6*C6</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="87" t="s">
         <v>78</v>
       </c>
@@ -5201,30 +5201,30 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
       <c r="H9" s="88">
         <f>SUM(H6:H8)</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="91">
         <f>0.15*H9</f>
         <v>0.11</v>
@@ -5239,16 +5239,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="92" t="s">
@@ -5257,7 +5257,7 @@
       <c r="F13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="86" t="s">
@@ -5265,61 +5265,61 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="90">
         <f>SUM(C15:C18)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="119">
         <v>0.4</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="128">
         <v>0</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="117">
         <v>0</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="119">
         <v>0</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="119">
         <f>G15*C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="87" t="s">
         <v>78</v>
       </c>
@@ -5345,30 +5345,30 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
       <c r="H18" s="88">
         <f>SUM(H15:H17)</f>
         <v>0.59813333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="91">
         <f>0.15*H18</f>
         <v>8.9719999999999994E-2</v>
@@ -5383,16 +5383,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="92" t="s">
@@ -5401,7 +5401,7 @@
       <c r="F22" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="86" t="s">
@@ -5409,61 +5409,61 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="90">
         <f>SUM(C24:C27)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="119">
         <v>0.4</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="128">
         <v>0</v>
       </c>
-      <c r="F24" s="128">
+      <c r="F24" s="117">
         <v>0</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="119">
         <v>0</v>
       </c>
-      <c r="H24" s="117">
+      <c r="H24" s="119">
         <f>G24*C24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="87" t="s">
         <v>78</v>
       </c>
@@ -5489,30 +5489,30 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="88">
         <f>SUM(H24:H26)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
       <c r="H28" s="91">
         <f>0.15*H27</f>
         <v>4.9999999999999996E-2</v>
@@ -5528,16 +5528,16 @@
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="92" t="s">
@@ -5546,7 +5546,7 @@
       <c r="F31" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="110" t="s">
+      <c r="G31" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="86" t="s">
@@ -5554,61 +5554,61 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="90">
         <f>SUM(C33:C36)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110" t="s">
+      <c r="D32" s="115"/>
+      <c r="E32" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
       <c r="H32" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="119">
         <v>0.4</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="126">
+      <c r="E33" s="128">
         <v>0</v>
       </c>
-      <c r="F33" s="128">
+      <c r="F33" s="117">
         <v>0.5</v>
       </c>
-      <c r="G33" s="117">
+      <c r="G33" s="119">
         <v>0.5</v>
       </c>
-      <c r="H33" s="117">
+      <c r="H33" s="119">
         <f>G33*C33</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="87" t="s">
         <v>78</v>
       </c>
@@ -5634,30 +5634,30 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
       <c r="H36" s="88">
         <f>SUM(H33:H35)</f>
         <v>0.77333333333333321</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="91">
         <f>0.15*H36</f>
         <v>0.11599999999999998</v>
@@ -5672,16 +5672,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="92" t="s">
@@ -5690,7 +5690,7 @@
       <c r="F40" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H40" s="86" t="s">
@@ -5698,61 +5698,61 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="90">
         <f>SUM(C42:C45)</f>
         <v>1</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110" t="s">
+      <c r="D41" s="115"/>
+      <c r="E41" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="86" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="119">
         <v>0.4</v>
       </c>
-      <c r="D42" s="124" t="s">
+      <c r="D42" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="126">
+      <c r="E42" s="128">
         <v>0</v>
       </c>
-      <c r="F42" s="128">
+      <c r="F42" s="117">
         <v>0.75</v>
       </c>
-      <c r="G42" s="117">
+      <c r="G42" s="119">
         <v>0.75</v>
       </c>
-      <c r="H42" s="117">
+      <c r="H42" s="119">
         <f>G42*C42</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="121"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="87" t="s">
         <v>78</v>
       </c>
@@ -5778,30 +5778,30 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
       <c r="H45" s="88">
         <f>SUM(H42:H44)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
       <c r="H46" s="91">
         <f>0.15*H45</f>
         <v>4.5000000000000005E-2</v>
@@ -5809,26 +5809,46 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A18:G18"/>
@@ -5844,46 +5864,26 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
